--- a/Combo/voicingAlternations.txt.xlsx
+++ b/Combo/voicingAlternations.txt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="74">
   <si>
     <t xml:space="preserve">input</t>
   </si>
@@ -153,6 +153,21 @@
     <t xml:space="preserve">Objective (L2)</t>
   </si>
   <si>
+    <t xml:space="preserve">wuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model comparison to drop constraints: do you eventually get to something like the L1 solution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wuga</t>
+  </si>
+  <si>
     <t xml:space="preserve">Faith and Faith_listed are the same constraint</t>
   </si>
   <si>
@@ -181,6 +196,9 @@
   </si>
   <si>
     <t xml:space="preserve">paga → paga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(wuga)</t>
   </si>
   <si>
     <t xml:space="preserve">ur_mouse = pak</t>
@@ -358,7 +376,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,19 +413,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,44 +434,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE0C2CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEE6EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -536,7 +508,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -972,11 +944,11 @@
   </sheetPr>
   <dimension ref="B1:Y31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.14"/>
@@ -992,51 +964,51 @@
       </c>
       <c r="H1" s="3" t="n">
         <f aca="false">(H4-H2)*SQRT(2)/$F$2^2</f>
-        <v>2.84609647192852E-005</v>
+        <v>1.218371388734E-010</v>
       </c>
       <c r="I1" s="3" t="n">
         <f aca="false">(I4-I2)*SQRT(2)/$F$2^2</f>
-        <v>0.000228267950359256</v>
+        <v>5.8881230118785E-008</v>
       </c>
       <c r="J1" s="3" t="n">
         <f aca="false">(J4-J2)*SQRT(2)/$F$2^2</f>
-        <v>0.000336366582073041</v>
+        <v>0.00138315971036785</v>
       </c>
       <c r="K1" s="3" t="n">
         <f aca="false">(K4-K2)*SQRT(2)/$F$2^2</f>
-        <v>4.41692946968335E-005</v>
+        <v>1.70574915075924E-010</v>
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">(L4-L2)*SQRT(2)/$F$2^2</f>
-        <v>1.7112961430503E-013</v>
+        <v>5.51356543027054E-011</v>
       </c>
       <c r="M1" s="3" t="n">
         <f aca="false">(M4-M2)*SQRT(2)/$F$2^2</f>
-        <v>0.00022105116671065</v>
+        <v>1.23496107573432E-010</v>
       </c>
       <c r="N1" s="3" t="n">
         <f aca="false">(N4-N2)*SQRT(2)/$F$2^2</f>
-        <v>6.86571455634882E-013</v>
+        <v>2.62793878407449E-011</v>
       </c>
       <c r="O1" s="3" t="n">
         <f aca="false">(O4-O2)*SQRT(2)/$F$2^2</f>
-        <v>3.1349475739487E-005</v>
+        <v>7.88817281169822E-011</v>
       </c>
       <c r="P1" s="3" t="n">
         <f aca="false">(P4-P2)*SQRT(2)/$F$2^2</f>
-        <v>0.000559222922404995</v>
+        <v>0.00263660062267406</v>
       </c>
       <c r="Q1" s="3" t="n">
         <f aca="false">(Q4-Q2)*SQRT(2)/$F$2^2</f>
-        <v>0.000406463928029767</v>
+        <v>3.0326844510724E-010</v>
       </c>
       <c r="R1" s="3" t="n">
         <f aca="false">(R4-R2)*SQRT(2)/$F$2^2</f>
-        <v>0.000268094492949256</v>
+        <v>1.06555997044953E-009</v>
       </c>
       <c r="S1" s="3" t="n">
         <f aca="false">(S4-S2)*SQRT(2)/$F$2^2</f>
-        <v>6.30787217957488E-013</v>
+        <v>1.43176450857246E-010</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,7 +1057,7 @@
       <c r="S2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1095,89 +1067,89 @@
       </c>
       <c r="H3" s="3" t="n">
         <f aca="false">(H4-H2)^2/2/$F$2</f>
-        <v>0.000202506628188099</v>
+        <v>3.71107210221402E-015</v>
       </c>
       <c r="I3" s="3" t="n">
         <f aca="false">(I4-I2)^2/2/$F$2</f>
-        <v>0.0130265642903039</v>
+        <v>8.66749815075327E-010</v>
       </c>
       <c r="J3" s="3" t="n">
         <f aca="false">(J4-J2)^2/2/$F$2</f>
-        <v>0.028285619383875</v>
+        <v>0.478282696096218</v>
       </c>
       <c r="K3" s="3" t="n">
         <f aca="false">(K4-K2)^2/2/$F$2</f>
-        <v>0.00048773164850393</v>
+        <v>7.27395041328964E-015</v>
       </c>
       <c r="L3" s="3" t="n">
         <f aca="false">(L4-L2)^2/2/$F$2</f>
-        <v>7.32133622304706E-021</v>
+        <v>7.59985093846859E-016</v>
       </c>
       <c r="M3" s="3" t="n">
         <f aca="false">(M4-M2)^2/2/$F$2</f>
-        <v>0.0122159045760349</v>
+        <v>3.81282214644718E-015</v>
       </c>
       <c r="N3" s="3" t="n">
         <f aca="false">(N4-N2)^2/2/$F$2</f>
-        <v>1.1784509092315E-019</v>
+        <v>1.72651556321073E-016</v>
       </c>
       <c r="O3" s="3" t="n">
         <f aca="false">(O4-O2)^2/2/$F$2</f>
-        <v>0.000245697407285171</v>
+        <v>1.55558175768037E-015</v>
       </c>
       <c r="P3" s="3" t="n">
         <f aca="false">(P4-P2)^2/2/$F$2</f>
-        <v>0.0781825692357957</v>
+        <v>1.73791571087131</v>
       </c>
       <c r="Q3" s="3" t="n">
         <f aca="false">(Q4-Q2)^2/2/$F$2</f>
-        <v>0.0413032311973468</v>
+        <v>2.29929374494407E-014</v>
       </c>
       <c r="R3" s="3" t="n">
         <f aca="false">(R4-R2)^2/2/$F$2</f>
-        <v>0.0179686642874297</v>
+        <v>2.838545126561E-013</v>
       </c>
       <c r="S3" s="3" t="n">
         <f aca="false">(S4-S2)^2/2/$F$2</f>
-        <v>9.94731285846368E-020</v>
+        <v>5.12487402001936E-015</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="1" t="n">
-        <v>0.201249411521176</v>
+        <v>8.61518670977481E-007</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>1.61409815626584</v>
+        <v>0.000416353171015984</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>2.37847091148389</v>
+        <v>9.78041610665127</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.31232407800358</v>
+        <v>1.20614679150505E-006</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>1.21006910736925E-009</v>
+        <v>3.89867950426002E-007</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1.56306778970299</v>
+        <v>8.73249351153172E-007</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>4.85479332048544E-009</v>
+        <v>1.8582333347622E-007</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.221674268820344</v>
+        <v>5.57778048632317E-007</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>3.9543032062753</v>
+        <v>18.643581795735</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>2.87413399817569</v>
+        <v>2.1444317405523E-006</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>1.89571433963188</v>
+        <v>7.53464680865799E-006</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>4.46033919303536E-009</v>
+        <v>1.01241039307381E-006</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,7 +1221,7 @@
       </c>
       <c r="X5" s="1" t="n">
         <f aca="false">SUMPRODUCT(W6:W17,F6:F17)</f>
-        <v>-0.10428427162433</v>
+        <v>-0.000424169629251776</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,11 +1289,11 @@
       </c>
       <c r="V6" s="1" t="n">
         <f aca="false">U6/SUMIF(B:B,B6,U:U)</f>
-        <v>0.996878074151368</v>
+        <v>0.999943455174641</v>
       </c>
       <c r="W6" s="1" t="n">
         <f aca="false">LN(V6)</f>
-        <v>-0.00312680922547674</v>
+        <v>-5.65464240782321E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,19 +1353,19 @@
       </c>
       <c r="T7" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H7:S7,H$4:S$4)</f>
-        <v>-5.76617839918433</v>
+        <v>-9.78042031874847</v>
       </c>
       <c r="U7" s="1" t="n">
         <f aca="false">EXP(T7)</f>
-        <v>0.00313170279253056</v>
+        <v>5.65480228573293E-005</v>
       </c>
       <c r="V7" s="1" t="n">
         <f aca="false">U7/SUMIF(B:B,B7,U:U)</f>
-        <v>0.00312192584863232</v>
+        <v>5.65448253592524E-005</v>
       </c>
       <c r="W7" s="1" t="n">
         <f aca="false">LN(V7)</f>
-        <v>-5.76930520840981</v>
+        <v>-9.78047686517255</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,26 +1425,26 @@
       </c>
       <c r="T8" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H8:S8,H$4:S$4)</f>
-        <v>-1.61409816112063</v>
+        <v>-0.00041653899434946</v>
       </c>
       <c r="U8" s="1" t="n">
         <f aca="false">EXP(T8)</f>
-        <v>0.199070118684706</v>
+        <v>0.999583547745973</v>
       </c>
       <c r="V8" s="1" t="n">
         <f aca="false">U8/SUMIF(B:B,B8,U:U)</f>
-        <v>0.97438196390706</v>
+        <v>0.999943431500985</v>
       </c>
       <c r="W8" s="1" t="n">
         <f aca="false">LN(V8)</f>
-        <v>-0.0259518921454138</v>
+        <v>-5.65700990732463E-005</v>
       </c>
       <c r="X8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Y8" s="1" t="n">
         <f aca="false">X5-SUM(H1:S1)</f>
-        <v>-0.106407718403501</v>
+        <v>-0.0044439909317336</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,26 +1504,26 @@
       </c>
       <c r="T9" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H9:S9,H$4:S$4)</f>
-        <v>-5.25260490965958</v>
+        <v>-9.78041825108301</v>
       </c>
       <c r="U9" s="1" t="n">
         <f aca="false">EXP(T9)</f>
-        <v>0.00523386687602625</v>
+        <v>5.65481397798441E-005</v>
       </c>
       <c r="V9" s="1" t="n">
         <f aca="false">U9/SUMIF(B:B,B9,U:U)</f>
-        <v>0.0256180360929396</v>
+        <v>5.65684990153765E-005</v>
       </c>
       <c r="W9" s="1" t="n">
         <f aca="false">LN(V9)</f>
-        <v>-3.66445864068436</v>
+        <v>-9.78005828218773</v>
       </c>
       <c r="X9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Y9" s="1" t="n">
         <f aca="false">X5-SUM(H3:S3)</f>
-        <v>-0.296202760279093</v>
+        <v>-2.21662257746386</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,19 +1583,19 @@
       </c>
       <c r="T10" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H10:S10,H$4:S$4)</f>
-        <v>-4.27418525111577</v>
+        <v>-9.78042364129808</v>
       </c>
       <c r="U10" s="1" t="n">
         <f aca="false">EXP(T10)</f>
-        <v>0.0139233881638815</v>
+        <v>5.65478349740304E-005</v>
       </c>
       <c r="V10" s="1" t="n">
         <f aca="false">U10/SUMIF(B:B,B10,U:U)</f>
-        <v>0.0167422498401344</v>
+        <v>5.65447082524466E-005</v>
       </c>
       <c r="W10" s="1" t="n">
         <f aca="false">LN(V10)</f>
-        <v>-4.08981982389932</v>
+        <v>-9.78047893621842</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,19 +1655,19 @@
       </c>
       <c r="T11" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H11:S11,H$4:S$4)</f>
-        <v>-0.201249412731245</v>
+        <v>-1.25138662140348E-006</v>
       </c>
       <c r="U11" s="1" t="n">
         <f aca="false">EXP(T11)</f>
-        <v>0.817708459218092</v>
+        <v>0.999998748614162</v>
       </c>
       <c r="V11" s="1" t="n">
         <f aca="false">U11/SUMIF(B:B,B11,U:U)</f>
-        <v>0.983257750159866</v>
+        <v>0.999943455291747</v>
       </c>
       <c r="W11" s="1" t="n">
         <f aca="false">LN(V11)</f>
-        <v>-0.0168839855147931</v>
+        <v>-5.65463069647302E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,19 +1727,19 @@
       </c>
       <c r="T12" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H12:S12,H$4:S$4)</f>
-        <v>-6.10995767620196</v>
+        <v>-9.78084055224714</v>
       </c>
       <c r="U12" s="1" t="n">
         <f aca="false">EXP(T12)</f>
-        <v>0.00222064479693131</v>
+        <v>5.65242644762245E-005</v>
       </c>
       <c r="V12" s="1" t="n">
         <f aca="false">U12/SUMIF(B:B,B12,U:U)</f>
-        <v>0.00221572445993792</v>
+        <v>5.65210696643343E-005</v>
       </c>
       <c r="W12" s="1" t="n">
         <f aca="false">LN(V12)</f>
-        <v>-6.11217585901136</v>
+        <v>-9.78089707491418</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,11 +1807,11 @@
       </c>
       <c r="V13" s="1" t="n">
         <f aca="false">U13/SUMIF(B:B,B13,U:U)</f>
-        <v>0.997784275540062</v>
+        <v>0.999943478930335</v>
       </c>
       <c r="W13" s="1" t="n">
         <f aca="false">LN(V13)</f>
-        <v>-0.0022181828094004</v>
+        <v>-5.6522667040321E-005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,11 +1879,11 @@
       </c>
       <c r="V14" s="1" t="n">
         <f aca="false">U14/SUMIF(B:B,B14,U:U)</f>
-        <v>0.984369667957144</v>
+        <v>0.999943455091812</v>
       </c>
       <c r="W14" s="1" t="n">
         <f aca="false">LN(V14)</f>
-        <v>-0.0157537736612667</v>
+        <v>-5.65465069116597E-005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,19 +1943,19 @@
       </c>
       <c r="T15" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H15:S15,H$4:S$4)</f>
-        <v>-4.14278811716839</v>
+        <v>-9.78041885382968</v>
       </c>
       <c r="U15" s="1" t="n">
         <f aca="false">EXP(T15)</f>
-        <v>0.0158785185603025</v>
+        <v>5.65481056956511E-005</v>
       </c>
       <c r="V15" s="1" t="n">
         <f aca="false">U15/SUMIF(B:B,B15,U:U)</f>
-        <v>0.0156303320428563</v>
+        <v>5.65449081882063E-005</v>
       </c>
       <c r="W15" s="1" t="n">
         <f aca="false">LN(V15)</f>
-        <v>-4.15854189082966</v>
+        <v>-9.78047540033659</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,19 +2015,19 @@
       </c>
       <c r="T16" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H16:S16,H$4:S$4)</f>
-        <v>-5.56840136254114</v>
+        <v>-18.643998148906</v>
       </c>
       <c r="U16" s="1" t="n">
         <f aca="false">EXP(T16)</f>
-        <v>0.0038165768810549</v>
+        <v>7.99860929177763E-009</v>
       </c>
       <c r="V16" s="1" t="n">
         <f aca="false">U16/SUMIF(B:B,B16,U:U)</f>
-        <v>0.0395464212786085</v>
+        <v>0.000141427623354203</v>
       </c>
       <c r="W16" s="1" t="n">
         <f aca="false">LN(V16)</f>
-        <v>-3.23028007486489</v>
+        <v>-8.86372246746956</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,27 +2087,33 @@
       </c>
       <c r="T17" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H17:S17,H$4:S$4)</f>
-        <v>-2.37847091594423</v>
+        <v>-9.78041711906166</v>
       </c>
       <c r="U17" s="1" t="n">
         <f aca="false">EXP(T17)</f>
-        <v>0.0926922033740973</v>
+        <v>5.65482037935816E-005</v>
       </c>
       <c r="V17" s="1" t="n">
         <f aca="false">U17/SUMIF(B:B,B17,U:U)</f>
-        <v>0.960453578721392</v>
+        <v>0.999858572376646</v>
       </c>
       <c r="W17" s="1" t="n">
         <f aca="false">LN(V17)</f>
-        <v>-0.040349628267979</v>
+        <v>-0.000141437625183587</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="J19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="J20" s="4" t="n">
         <v>0</v>
       </c>
@@ -2146,11 +2124,20 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="J22" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="M22" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="J23" s="4" t="n">
         <v>1</v>
       </c>
@@ -2211,13 +2198,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AMJ37"/>
+  <dimension ref="B1:S27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.14"/>
@@ -2233,19 +2220,19 @@
       </c>
       <c r="I1" s="3" t="n">
         <f aca="false">(I4-I2)*SQRT(2)/$F$2^2</f>
-        <v>3.37965969190472E-005</v>
+        <v>1.68133876537166E-013</v>
       </c>
       <c r="J1" s="3" t="n">
         <f aca="false">(J4-J2)*SQRT(2)/$F$2^2</f>
-        <v>0.00014503622177972</v>
+        <v>4.90115023068505E-005</v>
       </c>
       <c r="K1" s="3" t="n">
         <f aca="false">(K4-K2)*SQRT(2)/$F$2^2</f>
-        <v>0.000687034169017078</v>
+        <v>0.00150281293038257</v>
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">(L4-L2)*SQRT(2)/$F$2^2</f>
-        <v>0.000367060930057903</v>
+        <v>0.00120449657918155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,33 +2267,33 @@
       </c>
       <c r="I3" s="3" t="n">
         <f aca="false">(I4-I2)^2/2/$F$2</f>
-        <v>0.000285552490827137</v>
+        <v>7.06725010985371E-021</v>
       </c>
       <c r="J3" s="3" t="n">
         <f aca="false">(J4-J2)^2/2/$F$2</f>
-        <v>0.00525887640703402</v>
+        <v>0.000600531839593603</v>
       </c>
       <c r="K3" s="3" t="n">
         <f aca="false">(K4-K2)^2/2/$F$2</f>
-        <v>0.118003987349247</v>
+        <v>0.564611675931264</v>
       </c>
       <c r="L3" s="3" t="n">
         <f aca="false">(L4-L2)^2/2/$F$2</f>
-        <v>0.0336834315937431</v>
+        <v>0.362703002315012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="1" t="n">
-        <v>0.238978028624866</v>
+        <v>1.18888604246612E-009</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1.02556095938116</v>
+        <v>0.346563656373141</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>4.8580651981884</v>
+        <v>10.6264921392834</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>2.59551272752584</v>
+        <v>8.51707699055271</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,7 +2312,6 @@
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2325,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>36</v>
@@ -2356,7 +2342,7 @@
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">SUMPRODUCT(Q6:Q23,F6:F23)</f>
-        <v>-0.0753049487801074</v>
+        <v>-0.000282849442040634</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,7 +2361,7 @@
       <c r="F6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="n">
@@ -2401,17 +2387,17 @@
         <f aca="false">EXP(M6)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="10" t="n">
+      <c r="O6" s="9" t="n">
         <f aca="false">N6/SUMIF(B:B,B6,N:N)</f>
-        <v>0.993922363591739</v>
-      </c>
-      <c r="P6" s="1" t="n">
+        <v>0.999975735990711</v>
+      </c>
+      <c r="P6" s="10" t="n">
         <f aca="false">O6</f>
-        <v>0.993922363591739</v>
+        <v>0.999975735990711</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">LN(P6)</f>
-        <v>-0.0060961804144123</v>
+        <v>-2.42643036642902E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +2416,7 @@
       <c r="F7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
@@ -2450,23 +2436,23 @@
       </c>
       <c r="M7" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I7:L7,I$4:L$4)</f>
-        <v>-5.09704322681327</v>
+        <v>-10.6264921404723</v>
       </c>
       <c r="N7" s="1" t="n">
         <f aca="false">EXP(M7)</f>
-        <v>0.00611479993899952</v>
-      </c>
-      <c r="O7" s="10" t="n">
+        <v>2.42645980447418E-005</v>
+      </c>
+      <c r="O7" s="9" t="n">
         <f aca="false">N7/SUMIF(B:B,B7,N:N)</f>
-        <v>0.00607763640826102</v>
-      </c>
-      <c r="P7" s="1" t="n">
+        <v>2.42640092883095E-005</v>
+      </c>
+      <c r="P7" s="10" t="n">
         <f aca="false">O7</f>
-        <v>0.00607763640826102</v>
+        <v>2.42640092883095E-005</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">LN(P7)</f>
-        <v>-5.10313940722768</v>
+        <v>-10.626516404776</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -2485,7 +2471,7 @@
       <c r="F8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="4" t="n">
@@ -2505,23 +2491,23 @@
       </c>
       <c r="M8" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I8:L8,I$4:L$4)</f>
-        <v>-3.621073686907</v>
+        <v>-8.86364064692585</v>
       </c>
       <c r="N8" s="1" t="n">
         <f aca="false">EXP(M8)</f>
-        <v>0.0267539357156126</v>
-      </c>
-      <c r="O8" s="10" t="n">
+        <v>0.000141439195512655</v>
+      </c>
+      <c r="O8" s="9" t="n">
         <f aca="false">N8/SUMIF(B:B,B8,N:N)</f>
-        <v>0.0679561602810781</v>
+        <v>0.000199976378041089</v>
       </c>
       <c r="P8" s="1" t="n">
         <f aca="false">O8+O10</f>
-        <v>0.978803695129662</v>
+        <v>0.99996568619468</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">LN(P8)</f>
-        <v>-0.0214241722576268</v>
+        <v>-3.43143940520155E-005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +2518,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -2540,7 +2526,7 @@
       <c r="F9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
@@ -2560,144 +2546,126 @@
       </c>
       <c r="M9" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I9:L9,I$4:L$4)</f>
-        <v>-7.45357792571425</v>
+        <v>-19.1435691298362</v>
       </c>
       <c r="N9" s="1" t="n">
         <f aca="false">EXP(M9)</f>
-        <v>0.000579364974541132</v>
-      </c>
-      <c r="O9" s="10" t="n">
+        <v>4.85348356093267E-009</v>
+      </c>
+      <c r="O9" s="9" t="n">
         <f aca="false">N9/SUMIF(B:B,B9,N:N)</f>
-        <v>0.00147161223266991</v>
+        <v>6.86218597241979E-009</v>
       </c>
       <c r="P9" s="1" t="n">
         <f aca="false">O9+O11</f>
-        <v>0.0211963048703385</v>
+        <v>3.43138053200281E-005</v>
       </c>
       <c r="Q9" s="1" t="n">
         <f aca="false">LN(P9)</f>
-        <v>-3.85392841106487</v>
-      </c>
-    </row>
-    <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
+        <v>-10.2799627973044</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11" t="n">
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I10:L10,I$4:L$4)</f>
-        <v>-1.02556095938116</v>
+        <v>-0.346563656373141</v>
       </c>
       <c r="N10" s="1" t="n">
         <f aca="false">EXP(M10)</f>
-        <v>0.358595251604416</v>
-      </c>
-      <c r="O10" s="10" t="n">
+        <v>0.707113805554321</v>
+      </c>
+      <c r="O10" s="9" t="n">
         <f aca="false">N10/SUMIF(B:B,B10,N:N)</f>
-        <v>0.910847534848583</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="12" t="s">
+        <v>0.999765709816639</v>
+      </c>
+      <c r="R10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="11" t="n">
+      <c r="S10" s="1" t="n">
         <f aca="false">R5-SUM(I1:L1)</f>
-        <v>-0.0765378766978812</v>
-      </c>
-      <c r="AME10" s="0"/>
-      <c r="AMF10" s="0"/>
-      <c r="AMG10" s="0"/>
-      <c r="AMH10" s="0"/>
-      <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
+        <v>-0.00303917045407974</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11" t="n">
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I11:L11,I$4:L$4)</f>
-        <v>-4.8580651981884</v>
+        <v>-10.6264921392834</v>
       </c>
       <c r="N11" s="1" t="n">
         <f aca="false">EXP(M11)</f>
-        <v>0.00776549405757613</v>
-      </c>
-      <c r="O11" s="10" t="n">
+        <v>2.42645980735896E-005</v>
+      </c>
+      <c r="O11" s="9" t="n">
         <f aca="false">N11/SUMIF(B:B,B11,N:N)</f>
-        <v>0.0197246926376686</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="12" t="s">
+        <v>3.43069431340556E-005</v>
+      </c>
+      <c r="R11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S11" s="11" t="n">
+      <c r="S11" s="1" t="n">
         <f aca="false">R5-SUM(I3:L3)</f>
-        <v>-0.232536796620958</v>
-      </c>
-      <c r="AME11" s="0"/>
-      <c r="AMF11" s="0"/>
-      <c r="AMG11" s="0"/>
-      <c r="AMH11" s="0"/>
-      <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
+        <v>-0.928198059527911</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
@@ -2715,7 +2683,7 @@
       <c r="F12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="n">
@@ -2735,23 +2703,23 @@
       </c>
       <c r="M12" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I12:L12,I$4:L$4)</f>
-        <v>-4.8580651981884</v>
+        <v>-10.6264921392834</v>
       </c>
       <c r="N12" s="1" t="n">
         <f aca="false">EXP(M12)</f>
-        <v>0.00776549405757613</v>
-      </c>
-      <c r="O12" s="10" t="n">
+        <v>2.42645980735896E-005</v>
+      </c>
+      <c r="O12" s="9" t="n">
         <f aca="false">N12/SUMIF(B:B,B12,N:N)</f>
-        <v>0.00976548885912304</v>
-      </c>
-      <c r="P12" s="1" t="n">
+        <v>2.42640093460023E-005</v>
+      </c>
+      <c r="P12" s="10" t="n">
         <f aca="false">O12</f>
-        <v>0.00976548885912304</v>
+        <v>2.42640093460023E-005</v>
       </c>
       <c r="Q12" s="1" t="n">
         <f aca="false">LN(P12)</f>
-        <v>-4.62890065352838</v>
+        <v>-10.6265164023983</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,7 +2738,7 @@
       <c r="F13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="n">
@@ -2790,23 +2758,23 @@
       </c>
       <c r="M13" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I13:L13,I$4:L$4)</f>
-        <v>-0.238978028624866</v>
+        <v>-1.18888604246612E-009</v>
       </c>
       <c r="N13" s="1" t="n">
         <f aca="false">EXP(M13)</f>
-        <v>0.787432183150515</v>
-      </c>
-      <c r="O13" s="10" t="n">
+        <v>0.999999998811114</v>
+      </c>
+      <c r="O13" s="9" t="n">
         <f aca="false">N13/SUMIF(B:B,B13,N:N)</f>
-        <v>0.990234511140877</v>
-      </c>
-      <c r="P13" s="1" t="n">
+        <v>0.999975735990654</v>
+      </c>
+      <c r="P13" s="10" t="n">
         <f aca="false">O13</f>
-        <v>0.990234511140877</v>
+        <v>0.999975735990654</v>
       </c>
       <c r="Q13" s="1" t="n">
         <f aca="false">LN(P13)</f>
-        <v>-0.00981348396484486</v>
+        <v>-2.42643037218011E-005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,7 +2785,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
@@ -2825,7 +2793,7 @@
       <c r="F14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="4" t="n">
@@ -2845,23 +2813,23 @@
       </c>
       <c r="M14" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I14:L14,I$4:L$4)</f>
-        <v>-8.4791388850954</v>
+        <v>-19.4901327862093</v>
       </c>
       <c r="N14" s="1" t="n">
         <f aca="false">EXP(M14)</f>
-        <v>0.000207757528816364</v>
-      </c>
-      <c r="O14" s="10" t="n">
+        <v>3.43196523096644E-009</v>
+      </c>
+      <c r="O14" s="9" t="n">
         <f aca="false">N14/SUMIF(B:B,B14,N:N)</f>
-        <v>0.000192796511840897</v>
+        <v>3.43122002314151E-009</v>
       </c>
       <c r="P14" s="1" t="n">
         <f aca="false">O14+O16</f>
-        <v>0.00277693644575332</v>
+        <v>1.71575378979044E-005</v>
       </c>
       <c r="Q14" s="1" t="n">
         <f aca="false">LN(P14)</f>
-        <v>-5.88640695685623</v>
+        <v>-10.9730729533417</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -2880,7 +2848,7 @@
       <c r="F15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="n">
@@ -2900,108 +2868,98 @@
       </c>
       <c r="M15" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I15:L15,I$4:L$4)</f>
-        <v>-2.59551272752584</v>
+        <v>-8.51707699055271</v>
       </c>
       <c r="N15" s="1" t="n">
         <f aca="false">EXP(M15)</f>
-        <v>0.0746076128892141</v>
-      </c>
-      <c r="O15" s="10" t="n">
+        <v>0.000200023241523022</v>
+      </c>
+      <c r="O15" s="9" t="n">
         <f aca="false">N15/SUMIF(B:B,B15,N:N)</f>
-        <v>0.0692349760019071</v>
+        <v>0.000199979809007038</v>
       </c>
       <c r="P15" s="1" t="n">
         <f aca="false">O15+O17</f>
-        <v>0.997223063554247</v>
+        <v>0.999982842462102</v>
       </c>
       <c r="Q15" s="1" t="n">
         <f aca="false">LN(P15)</f>
-        <v>-0.00278079928666496</v>
-      </c>
-    </row>
-    <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9" t="s">
+        <v>-1.71576850902308E-005</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="11" t="n">
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I16:L16,I$4:L$4)</f>
-        <v>-5.88362615756956</v>
+        <v>-10.9730557956566</v>
       </c>
       <c r="N16" s="1" t="n">
         <f aca="false">EXP(M16)</f>
-        <v>0.00278466929540911</v>
-      </c>
-      <c r="O16" s="10" t="n">
+        <v>1.7157832284062E-005</v>
+      </c>
+      <c r="O16" s="9" t="n">
         <f aca="false">N16/SUMIF(B:B,B16,N:N)</f>
-        <v>0.00258413993391242</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="AME16" s="0"/>
-      <c r="AMF16" s="0"/>
-      <c r="AMG16" s="0"/>
-      <c r="AMH16" s="0"/>
-      <c r="AMI16" s="0"/>
-      <c r="AMJ16" s="0"/>
-    </row>
-    <row r="17" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9" t="s">
+        <v>1.71541066778812E-005</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11" t="n">
+      <c r="F17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
@@ -3012,18 +2970,10 @@
         <f aca="false">EXP(M17)</f>
         <v>1</v>
       </c>
-      <c r="O17" s="10" t="n">
+      <c r="O17" s="9" t="n">
         <f aca="false">N17/SUMIF(B:B,B17,N:N)</f>
-        <v>0.92798808755234</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="AME17" s="0"/>
-      <c r="AMF17" s="0"/>
-      <c r="AMG17" s="0"/>
-      <c r="AMH17" s="0"/>
-      <c r="AMI17" s="0"/>
-      <c r="AMJ17" s="0"/>
+        <v>0.999782862653095</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
@@ -3041,7 +2991,7 @@
       <c r="F18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="4" t="n">
@@ -3056,7 +3006,7 @@
       <c r="K18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="11" t="n">
+      <c r="L18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
@@ -3067,17 +3017,17 @@
         <f aca="false">EXP(M18)</f>
         <v>1</v>
       </c>
-      <c r="O18" s="10" t="n">
+      <c r="O18" s="9" t="n">
         <f aca="false">N18/SUMIF(B:B,B18,N:N)</f>
-        <v>0.993922363591739</v>
-      </c>
-      <c r="P18" s="1" t="n">
+        <v>0.999975735990711</v>
+      </c>
+      <c r="P18" s="10" t="n">
         <f aca="false">O18</f>
-        <v>0.993922363591739</v>
+        <v>0.999975735990711</v>
       </c>
       <c r="Q18" s="1" t="n">
         <f aca="false">LN(P18)</f>
-        <v>-0.0060961804144123</v>
+        <v>-2.42643036642902E-005</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,7 +3046,7 @@
       <c r="F19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="4" t="n">
@@ -3111,28 +3061,28 @@
       <c r="K19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="11" t="n">
+      <c r="L19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I19:L19,I$4:L$4)</f>
-        <v>-5.09704322681327</v>
+        <v>-10.6264921404723</v>
       </c>
       <c r="N19" s="1" t="n">
         <f aca="false">EXP(M19)</f>
-        <v>0.00611479993899952</v>
-      </c>
-      <c r="O19" s="10" t="n">
+        <v>2.42645980447418E-005</v>
+      </c>
+      <c r="O19" s="9" t="n">
         <f aca="false">N19/SUMIF(B:B,B19,N:N)</f>
-        <v>0.00607763640826102</v>
-      </c>
-      <c r="P19" s="1" t="n">
+        <v>2.42640092883095E-005</v>
+      </c>
+      <c r="P19" s="10" t="n">
         <f aca="false">O19</f>
-        <v>0.00607763640826102</v>
+        <v>2.42640092883095E-005</v>
       </c>
       <c r="Q19" s="1" t="n">
         <f aca="false">LN(P19)</f>
-        <v>-5.10313940722768</v>
+        <v>-10.626516404776</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,7 +3093,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
@@ -3151,7 +3101,7 @@
       <c r="F20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="4" t="n">
@@ -3166,28 +3116,28 @@
       <c r="K20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L20" s="11" t="n">
+      <c r="L20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M20" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I20:L20,I$4:L$4)</f>
-        <v>-3.621073686907</v>
+        <v>-8.86364064692585</v>
       </c>
       <c r="N20" s="1" t="n">
         <f aca="false">EXP(M20)</f>
-        <v>0.0267539357156126</v>
-      </c>
-      <c r="O20" s="10" t="n">
+        <v>0.000141439195512655</v>
+      </c>
+      <c r="O20" s="9" t="n">
         <f aca="false">N20/SUMIF(B:B,B20,N:N)</f>
-        <v>0.0259717202253909</v>
+        <v>0.000141416766547436</v>
       </c>
       <c r="P20" s="1" t="n">
         <f aca="false">O20+O22</f>
-        <v>0.0286749730338514</v>
+        <v>0.000158571877998549</v>
       </c>
       <c r="Q20" s="1" t="n">
         <f aca="false">LN(P20)</f>
-        <v>-3.55173055637337</v>
+        <v>-8.74930257849214</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,7 +3148,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>16</v>
@@ -3206,7 +3156,7 @@
       <c r="F21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="4" t="n">
@@ -3221,113 +3171,103 @@
       <c r="K21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="11" t="n">
+      <c r="L21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M21" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I21:L21,I$4:L$4)</f>
-        <v>-7.45357792571425</v>
+        <v>-19.1435691298362</v>
       </c>
       <c r="N21" s="1" t="n">
         <f aca="false">EXP(M21)</f>
-        <v>0.000579364974541132</v>
-      </c>
-      <c r="O21" s="10" t="n">
+        <v>4.85348356093267E-009</v>
+      </c>
+      <c r="O21" s="9" t="n">
         <f aca="false">N21/SUMIF(B:B,B21,N:N)</f>
-        <v>0.000562425849681325</v>
+        <v>4.85271391137701E-009</v>
       </c>
       <c r="P21" s="1" t="n">
         <f aca="false">O21+O23</f>
-        <v>0.971325026966149</v>
+        <v>0.999841428122002</v>
       </c>
       <c r="Q21" s="1" t="n">
         <f aca="false">LN(P21)</f>
-        <v>-0.0290941324421462</v>
-      </c>
-    </row>
-    <row r="22" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9" t="s">
+        <v>-0.000158584451848006</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="11" t="n">
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
         <f aca="false">-SUMPRODUCT(I22:L22,I$4:L$4)</f>
-        <v>-5.88362615756956</v>
+        <v>-10.9730557956566</v>
       </c>
       <c r="N22" s="1" t="n">
         <f aca="false">EXP(M22)</f>
-        <v>0.00278466929540911</v>
-      </c>
-      <c r="O22" s="10" t="n">
+        <v>1.7157832284062E-005</v>
+      </c>
+      <c r="O22" s="9" t="n">
         <f aca="false">N22/SUMIF(B:B,B22,N:N)</f>
-        <v>0.00270325280846051</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="AME22" s="0"/>
-      <c r="AMF22" s="0"/>
-      <c r="AMG22" s="0"/>
-      <c r="AMH22" s="0"/>
-      <c r="AMI22" s="0"/>
-      <c r="AMJ22" s="0"/>
-    </row>
-    <row r="23" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9" t="s">
+        <v>1.71551114511123E-005</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11" t="n">
+      <c r="F23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
@@ -3338,57 +3278,25 @@
         <f aca="false">EXP(M23)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="10" t="n">
+      <c r="O23" s="9" t="n">
         <f aca="false">N23/SUMIF(B:B,B23,N:N)</f>
-        <v>0.970762601116467</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="AME23" s="0"/>
-      <c r="AMF23" s="0"/>
-      <c r="AMG23" s="0"/>
-      <c r="AMH23" s="0"/>
-      <c r="AMI23" s="0"/>
-      <c r="AMJ23" s="0"/>
+        <v>0.999841423269288</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="0"/>
+      <c r="C25" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="0"/>
+      <c r="C26" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K37" s="0"/>
+      <c r="C27" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3406,15 +3314,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AMJ35"/>
+  <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="5.28"/>
@@ -3532,7 +3440,6 @@
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
@@ -3545,11 +3452,11 @@
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>53</v>
+      <c r="L5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>36</v>
@@ -3585,7 +3492,7 @@
       <c r="F6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="n">
@@ -3600,10 +3507,10 @@
       <c r="K6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9" t="n">
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="5" t="n">
@@ -3614,7 +3521,7 @@
         <f aca="false">EXP(N6)</f>
         <v>1</v>
       </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="9" t="n">
         <f aca="false">O6/SUMIF(B:B,B6,O:O)</f>
         <v>0.999999999996816</v>
       </c>
@@ -3643,7 +3550,7 @@
       <c r="F7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
@@ -3658,10 +3565,10 @@
       <c r="K7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9" t="n">
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="5" t="n">
@@ -3672,7 +3579,7 @@
         <f aca="false">EXP(N7)</f>
         <v>3.183663946829E-012</v>
       </c>
-      <c r="P7" s="10" t="n">
+      <c r="P7" s="9" t="n">
         <f aca="false">O7/SUMIF(B:B,B7,O:O)</f>
         <v>3.18366394681886E-012</v>
       </c>
@@ -3684,10 +3591,10 @@
         <f aca="false">LN(Q7)</f>
         <v>-26.4729883978574</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="11" t="n">
+      <c r="T7" s="1" t="n">
         <f aca="false">S5-SUM(I1:M1)</f>
         <v>-0.00550574065980679</v>
       </c>
@@ -3700,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -3708,7 +3615,7 @@
       <c r="F8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="4" t="n">
@@ -3723,10 +3630,10 @@
       <c r="K8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9" t="n">
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
@@ -3737,7 +3644,7 @@
         <f aca="false">EXP(N8)</f>
         <v>0.000212211005558436</v>
       </c>
-      <c r="P8" s="10" t="n">
+      <c r="P8" s="9" t="n">
         <f aca="false">O8/SUMIF(B:B,B8,O:O)</f>
         <v>0.999929308445429</v>
       </c>
@@ -3749,10 +3656,10 @@
         <f aca="false">LN(Q8)</f>
         <v>-7.0694053336995E-005</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="11" t="n">
+      <c r="T8" s="1" t="n">
         <f aca="false">S5-SUM(I3:M3)</f>
         <v>-2.33864171179752</v>
       </c>
@@ -3765,7 +3672,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -3773,7 +3680,7 @@
       <c r="F9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
@@ -3788,10 +3695,10 @@
       <c r="K9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9" t="n">
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="5" t="n">
@@ -3802,7 +3709,7 @@
         <f aca="false">EXP(N9)</f>
         <v>1.50025864362119E-008</v>
       </c>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="9" t="n">
         <f aca="false">O9/SUMIF(B:B,B9,O:O)</f>
         <v>7.06915545712505E-005</v>
       </c>
@@ -3831,7 +3738,7 @@
       <c r="F10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
@@ -3846,10 +3753,10 @@
       <c r="K10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9" t="n">
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
@@ -3860,7 +3767,7 @@
         <f aca="false">EXP(N10)</f>
         <v>1.50025864362119E-008</v>
       </c>
-      <c r="P10" s="10" t="n">
+      <c r="P10" s="9" t="n">
         <f aca="false">O10/SUMIF(B:B,B10,O:O)</f>
         <v>7.06926648664807E-005</v>
       </c>
@@ -3889,7 +3796,7 @@
       <c r="F11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="n">
@@ -3904,10 +3811,10 @@
       <c r="K11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9" t="n">
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
@@ -3918,7 +3825,7 @@
         <f aca="false">EXP(N11)</f>
         <v>0.000212207672348053</v>
       </c>
-      <c r="P11" s="10" t="n">
+      <c r="P11" s="9" t="n">
         <f aca="false">O11/SUMIF(B:B,B11,O:O)</f>
         <v>0.999929307335134</v>
       </c>
@@ -3939,7 +3846,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
@@ -3947,7 +3854,7 @@
       <c r="F12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="n">
@@ -3962,10 +3869,10 @@
       <c r="K12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9" t="n">
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="5" t="n">
@@ -3976,7 +3883,7 @@
         <f aca="false">EXP(N12)</f>
         <v>3.18371395360587E-012</v>
       </c>
-      <c r="P12" s="10" t="n">
+      <c r="P12" s="9" t="n">
         <f aca="false">O12/SUMIF(B:B,B12,O:O)</f>
         <v>3.18371395359574E-012</v>
       </c>
@@ -3997,7 +3904,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
@@ -4005,7 +3912,7 @@
       <c r="F13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="n">
@@ -4020,10 +3927,10 @@
       <c r="K13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9" t="n">
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="5" t="n">
@@ -4034,7 +3941,7 @@
         <f aca="false">EXP(N13)</f>
         <v>1</v>
       </c>
-      <c r="P13" s="10" t="n">
+      <c r="P13" s="9" t="n">
         <f aca="false">O13/SUMIF(B:B,B13,O:O)</f>
         <v>0.999999999996816</v>
       </c>
@@ -4063,7 +3970,7 @@
       <c r="F14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="4" t="n">
@@ -4078,10 +3985,10 @@
       <c r="K14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9" t="n">
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="5" t="n">
@@ -4092,7 +3999,7 @@
         <f aca="false">EXP(N14)</f>
         <v>0.999999985675388</v>
       </c>
-      <c r="P14" s="10" t="n">
+      <c r="P14" s="9" t="n">
         <f aca="false">O14/SUMIF(B:B,B14,O:O)</f>
         <v>0.999787822353065</v>
       </c>
@@ -4121,7 +4028,7 @@
       <c r="F15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="4" t="n">
@@ -4136,10 +4043,10 @@
       <c r="K15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9" t="n">
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="5" t="n">
@@ -4150,7 +4057,7 @@
         <f aca="false">EXP(N15)</f>
         <v>3.18366390122424E-012</v>
       </c>
-      <c r="P15" s="10" t="n">
+      <c r="P15" s="9" t="n">
         <f aca="false">O15/SUMIF(B:B,B15,O:O)</f>
         <v>3.18298844450412E-012</v>
       </c>
@@ -4164,38 +4071,37 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="9" t="n">
+      <c r="F16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N16" s="5" t="n">
@@ -4206,7 +4112,7 @@
         <f aca="false">EXP(N16)</f>
         <v>1.50025860604705E-008</v>
       </c>
-      <c r="P16" s="10" t="n">
+      <c r="P16" s="9" t="n">
         <f aca="false">O16/SUMIF(B:B,B16,O:O)</f>
         <v>1.49994030619228E-008</v>
       </c>
@@ -4214,38 +4120,37 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="9" t="n">
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
@@ -4256,7 +4161,7 @@
         <f aca="false">EXP(N17)</f>
         <v>0.000212207667033288</v>
       </c>
-      <c r="P17" s="10" t="n">
+      <c r="P17" s="9" t="n">
         <f aca="false">O17/SUMIF(B:B,B17,O:O)</f>
         <v>0.000212162644348983</v>
       </c>
@@ -4271,7 +4176,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
@@ -4279,7 +4184,7 @@
       <c r="F18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="4" t="n">
@@ -4294,10 +4199,10 @@
       <c r="K18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9" t="n">
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="5" t="n">
@@ -4308,7 +4213,7 @@
         <f aca="false">EXP(N18)</f>
         <v>0.000212211002518596</v>
       </c>
-      <c r="P18" s="10" t="n">
+      <c r="P18" s="9" t="n">
         <f aca="false">O18/SUMIF(B:B,B18,O:O)</f>
         <v>0.000212165980693139</v>
       </c>
@@ -4329,7 +4234,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>16</v>
@@ -4337,7 +4242,7 @@
       <c r="F19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="4" t="n">
@@ -4352,10 +4257,10 @@
       <c r="K19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9" t="n">
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N19" s="5" t="n">
@@ -4366,7 +4271,7 @@
         <f aca="false">EXP(N19)</f>
         <v>1.50025862213057E-008</v>
       </c>
-      <c r="P19" s="10" t="n">
+      <c r="P19" s="9" t="n">
         <f aca="false">O19/SUMIF(B:B,B19,O:O)</f>
         <v>1.49994033334712E-008</v>
       </c>
@@ -4379,39 +4284,38 @@
         <v>-0.000212188494262561</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="s">
+    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="11" t="n">
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
@@ -4422,51 +4326,43 @@
         <f aca="false">EXP(N20)</f>
         <v>3.18371387386942E-012</v>
       </c>
-      <c r="P20" s="10" t="n">
+      <c r="P20" s="9" t="n">
         <f aca="false">O20/SUMIF(B:B,B20,O:O)</f>
         <v>3.18303843004873E-012</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="AMF20" s="0"/>
-      <c r="AMG20" s="0"/>
-      <c r="AMH20" s="0"/>
-      <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
-    </row>
-    <row r="21" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11" t="n">
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N21" s="5" t="n">
@@ -4477,60 +4373,20 @@
         <f aca="false">EXP(N21)</f>
         <v>0.99999997495489</v>
       </c>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="9" t="n">
         <f aca="false">O21/SUMIF(B:B,B21,O:O)</f>
         <v>0.99978781901672</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="AMF21" s="0"/>
-      <c r="AMG21" s="0"/>
-      <c r="AMH21" s="0"/>
-      <c r="AMI21" s="0"/>
-      <c r="AMJ21" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K23" s="0"/>
+      <c r="C23" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K24" s="0"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="0"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K35" s="0"/>
+      <c r="C24" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4548,13 +4404,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:U17"/>
+  <dimension ref="B1:U20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.14"/>
@@ -4562,8 +4418,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="1" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="4.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="4.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,22 +4583,22 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>36</v>
@@ -4786,22 +4642,22 @@
       <c r="I6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11" t="n">
+      <c r="J6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="5" t="n">
@@ -4846,22 +4702,22 @@
       <c r="I7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11" t="n">
+      <c r="J7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="5" t="n">
@@ -4906,22 +4762,22 @@
       <c r="I8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11" t="n">
+      <c r="J8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="5" t="n">
@@ -4973,22 +4829,22 @@
       <c r="I9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11" t="n">
+      <c r="J9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="5" t="n">
@@ -5040,22 +4896,22 @@
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11" t="n">
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="5" t="n">
@@ -5100,22 +4956,22 @@
       <c r="I11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11" t="n">
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="5" t="n">
@@ -5160,22 +5016,22 @@
       <c r="I12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11" t="n">
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="5" t="n">
@@ -5220,22 +5076,22 @@
       <c r="I13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11" t="n">
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="5" t="n">
@@ -5280,22 +5136,22 @@
       <c r="I14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13" t="n">
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11" t="n">
         <v>1</v>
       </c>
       <c r="P14" s="5" t="n">
@@ -5340,22 +5196,22 @@
       <c r="I15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="13" t="n">
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="5" t="n">
@@ -5400,22 +5256,22 @@
       <c r="I16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="13" t="n">
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11" t="n">
         <v>1</v>
       </c>
       <c r="P16" s="5" t="n">
@@ -5460,22 +5316,22 @@
       <c r="I17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="13" t="n">
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="5" t="n">
@@ -5493,6 +5349,16 @@
       <c r="S17" s="1" t="n">
         <f aca="false">LN(R17)</f>
         <v>-0.000282952308441316</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5513,18 +5379,18 @@
   </sheetPr>
   <dimension ref="B1:V32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="4.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="1" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="10.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="4.9"/>
   </cols>
   <sheetData>
@@ -5706,22 +5572,22 @@
         <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>36</v>
@@ -5769,12 +5635,6 @@
         <f aca="false">MIN(L4,1)</f>
         <v>3.66131750629631E-010</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
       <c r="Q6" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H6:P6,H$4:P$4)</f>
         <v>-2.27717593378201E-009</v>
@@ -5821,12 +5681,6 @@
         <f aca="false">MIN(K4,1)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
       <c r="Q7" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H7:P7,H$4:P$4)</f>
         <v>-8.99594518784618</v>
@@ -5873,12 +5727,6 @@
         <f aca="false">MIN(L4,1)</f>
         <v>3.66131750629631E-010</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
       <c r="Q8" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H8:P8,H$4:P$4)</f>
         <v>-2.77638679553821</v>
@@ -5932,12 +5780,6 @@
         <f aca="false">MIN(K4,1)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
       <c r="Q9" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H9:P9,H$4:P$4)</f>
         <v>-6.21955328885295</v>
@@ -5991,12 +5833,6 @@
         <f aca="false">MIN(N4,1)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
       <c r="Q10" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H10:P10,H$4:P$4)</f>
         <v>-6.21955328885295</v>
@@ -6043,12 +5879,6 @@
         <f aca="false">MIN(M4,1)</f>
         <v>9.62827947392088E-011</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
       <c r="Q11" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H11:P11,H$4:P$4)</f>
         <v>-2.77639189959207</v>
@@ -6095,12 +5925,6 @@
         <f aca="false">MIN(N4,1)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
       <c r="Q12" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H12:P12,H$4:P$4)</f>
         <v>-8.99594008211399</v>
@@ -6147,12 +5971,6 @@
         <f aca="false">MIN(M4,1)</f>
         <v>9.62827947392088E-011</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
       <c r="Q13" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H13:P13,H$4:P$4)</f>
         <v>-5.988359726802E-010</v>
@@ -6199,12 +6017,6 @@
         <f aca="false">MIN(P4,1)</f>
         <v>0.000119361284194736</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
       <c r="Q14" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H14:P14,H$4:P$4)</f>
         <v>-0.000742373867675082</v>
@@ -6251,12 +6063,6 @@
         <f aca="false">MIN(O4,1)</f>
         <v>0.000115730411802711</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
       <c r="Q15" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H15:P15,H$4:P$4)</f>
         <v>-2.77711169045658</v>
@@ -6303,12 +6109,6 @@
         <f aca="false">MIN(P4,1)</f>
         <v>0.000119361284194736</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
       <c r="Q16" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H16:P16,H$4:P$4)</f>
         <v>-2.77712916712871</v>
@@ -6355,12 +6155,6 @@
         <f aca="false">MIN(O4,1)</f>
         <v>0.000115730411802711</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
       <c r="Q17" s="5" t="n">
         <f aca="false">-SUMPRODUCT(H17:P17,H$4:P$4)</f>
         <v>-0.000719791463347856</v>
@@ -6379,46 +6173,52 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q19" s="0"/>
+      <c r="C19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q20" s="0"/>
+      <c r="C20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q21" s="0"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="0"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q23" s="0"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q24" s="0"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q25" s="0"/>
+      <c r="Q25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q26" s="0"/>
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q27" s="0"/>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q28" s="0"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q29" s="0"/>
+      <c r="Q29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q30" s="0"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q31" s="0"/>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q32" s="0"/>
+      <c r="Q32" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Combo/voicingAlternations.txt.xlsx
+++ b/Combo/voicingAlternations.txt.xlsx
@@ -508,7 +508,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -945,10 +945,10 @@
   <dimension ref="B1:Y31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.14"/>
@@ -2103,7 +2103,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -2111,7 +2111,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J20" s="4" t="n">
@@ -2124,7 +2124,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J22" s="4" t="n">
@@ -2135,7 +2135,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J23" s="4" t="n">
@@ -2204,7 +2204,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.14"/>
@@ -3284,17 +3284,17 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3320,7 +3320,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
@@ -4379,12 +4379,12 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.14"/>
@@ -4419,7 +4419,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="4.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="4.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="4.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,12 +5352,12 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.14"/>
@@ -6173,13 +6173,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="1"/>
